--- a/Especificas/DOCUMENTACION DE RESPALDO.xlsx
+++ b/Especificas/DOCUMENTACION DE RESPALDO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datos-originales" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="254">
   <si>
     <t>Tarjeta **</t>
   </si>
@@ -99,120 +99,710 @@
     <t>codigo</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>4118********8445</t>
-  </si>
-  <si>
-    <t>5453********1840</t>
-  </si>
-  <si>
-    <t>74406750208020816376381</t>
-  </si>
-  <si>
-    <t>26/07/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$                              80.00 </t>
-  </si>
-  <si>
-    <t>486965</t>
-  </si>
-  <si>
-    <t>74406750208020819434856</t>
-  </si>
-  <si>
-    <t>498725</t>
-  </si>
-  <si>
-    <t>75383960251025123169226</t>
-  </si>
-  <si>
-    <t>07/09/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">$                             63.00 </t>
   </si>
   <si>
-    <t>044258</t>
-  </si>
-  <si>
-    <t>75383960251025123173111</t>
-  </si>
-  <si>
-    <t>034584</t>
-  </si>
-  <si>
     <t>12-2183-2018</t>
   </si>
   <si>
     <t>MARTINEZ MENDOZA GENESIS YAMILETH</t>
   </si>
   <si>
-    <t>XXXXXXXXX1840</t>
-  </si>
-  <si>
-    <t>51-4333-2018</t>
-  </si>
-  <si>
-    <t>GONZALEZ SANCHEZ KATHYA MICHELLE</t>
-  </si>
-  <si>
-    <t>XXXXXXXXX8445</t>
-  </si>
-  <si>
-    <t>54970</t>
-  </si>
-  <si>
-    <t>004113632</t>
-  </si>
-  <si>
-    <t>025123173111</t>
-  </si>
-  <si>
-    <t>2020-09-07 17:54:49.720</t>
-  </si>
-  <si>
-    <t>0313006300000020803160220207</t>
-  </si>
-  <si>
-    <t>54969</t>
-  </si>
-  <si>
-    <t>004113630</t>
-  </si>
-  <si>
-    <t>025123169226</t>
-  </si>
-  <si>
-    <t>2020-09-07 17:48:15.243</t>
-  </si>
-  <si>
-    <t>0313006300000020803150220209</t>
-  </si>
-  <si>
-    <t>49541</t>
-  </si>
-  <si>
-    <t>004066716</t>
-  </si>
-  <si>
-    <t>020819434856</t>
-  </si>
-  <si>
-    <t>2020-07-26 13:08:51.940</t>
-  </si>
-  <si>
-    <t>0313008000000021028210220209</t>
+    <t>544204xxxxxx3221</t>
+  </si>
+  <si>
+    <t>75383960275027514666531</t>
+  </si>
+  <si>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                             75.00 </t>
+  </si>
+  <si>
+    <t>061896</t>
+  </si>
+  <si>
+    <t>75383960275027514672786</t>
+  </si>
+  <si>
+    <t>036621</t>
+  </si>
+  <si>
+    <t>75383960275027515684871</t>
+  </si>
+  <si>
+    <t>093580</t>
+  </si>
+  <si>
+    <t>75383960275027515688690</t>
+  </si>
+  <si>
+    <t>041825</t>
+  </si>
+  <si>
+    <t>75383960275027515689987</t>
+  </si>
+  <si>
+    <t>086300</t>
+  </si>
+  <si>
+    <t>75383960275027515699531</t>
+  </si>
+  <si>
+    <t>002712</t>
+  </si>
+  <si>
+    <t>544204xxxxxx2229</t>
+  </si>
+  <si>
+    <t>75383960278027804434720</t>
+  </si>
+  <si>
+    <t>04/10/2020</t>
+  </si>
+  <si>
+    <t>067468</t>
+  </si>
+  <si>
+    <t>75383960278027804435313</t>
+  </si>
+  <si>
+    <t>025317</t>
+  </si>
+  <si>
+    <t>544204xxxxxx4410</t>
+  </si>
+  <si>
+    <t>75383960295029502871871</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>012376</t>
+  </si>
+  <si>
+    <t>75383960295029503873116</t>
+  </si>
+  <si>
+    <t>013881</t>
+  </si>
+  <si>
+    <t>75383960295029503876218</t>
+  </si>
+  <si>
+    <t>073819</t>
+  </si>
+  <si>
+    <t>544204xxxxxx8526</t>
+  </si>
+  <si>
+    <t>75383960295029502856773</t>
+  </si>
+  <si>
+    <t>003500</t>
+  </si>
+  <si>
+    <t>75383960295029502857805</t>
+  </si>
+  <si>
+    <t>080690</t>
+  </si>
+  <si>
+    <t>545375xxxxxx0917</t>
+  </si>
+  <si>
+    <t>75383960242024203581394</t>
+  </si>
+  <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
+    <t>038207</t>
+  </si>
+  <si>
+    <t>75383960242024205614003</t>
+  </si>
+  <si>
+    <t>092391</t>
+  </si>
+  <si>
+    <t>552263xxxxxx8599</t>
+  </si>
+  <si>
+    <t>75383960311031119841362</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>023933</t>
+  </si>
+  <si>
+    <t>545375xxxxxx1683</t>
+  </si>
+  <si>
+    <t>75383960235023520249239</t>
+  </si>
+  <si>
+    <t>22/08/2020</t>
+  </si>
+  <si>
+    <t>007633</t>
+  </si>
+  <si>
+    <t>75383960235023520254296</t>
+  </si>
+  <si>
+    <t>017894</t>
+  </si>
+  <si>
+    <t>544204xxxxxx9754</t>
+  </si>
+  <si>
+    <t>75383960295029501843632</t>
+  </si>
+  <si>
+    <t>066111</t>
+  </si>
+  <si>
+    <t>75383960295029502847509</t>
+  </si>
+  <si>
+    <t>038013</t>
+  </si>
+  <si>
+    <t>457495xxxxxx1697</t>
+  </si>
+  <si>
+    <t>74406750289028900728500</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              63.00 </t>
+  </si>
+  <si>
+    <t>009532</t>
+  </si>
+  <si>
+    <t>477260xxxxxx4569</t>
+  </si>
+  <si>
+    <t>74406750235023500375880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              68.88 </t>
+  </si>
+  <si>
+    <t>064365</t>
+  </si>
+  <si>
+    <t>74406750235023500379775</t>
+  </si>
+  <si>
+    <t>071965</t>
+  </si>
+  <si>
+    <t>25-1074-2016</t>
+  </si>
+  <si>
+    <t>57976</t>
+  </si>
+  <si>
+    <t>MONTANO RIVERA HAROLD ADRIAN</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX3221</t>
+  </si>
+  <si>
+    <t>004143576</t>
+  </si>
+  <si>
+    <t>027515699531</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:23:46.253</t>
+  </si>
+  <si>
+    <t>0313006300000018954060220203</t>
+  </si>
+  <si>
+    <t>18-6218-2014</t>
+  </si>
+  <si>
+    <t>60841</t>
+  </si>
+  <si>
+    <t>LINARES SANDOVAL YAQUELIN BEATRIZ</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX8526</t>
+  </si>
+  <si>
+    <t>004180562</t>
+  </si>
+  <si>
+    <t>029502856773</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:23:45.830</t>
+  </si>
+  <si>
+    <t>0313006300000017788660220200</t>
+  </si>
+  <si>
+    <t>22-1021-2019</t>
+  </si>
+  <si>
+    <t>54058</t>
+  </si>
+  <si>
+    <t>CANIZALEZ ALFARO PATRICIA CAROLINA</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX1683</t>
+  </si>
+  <si>
+    <t>004096085</t>
+  </si>
+  <si>
+    <t>023520249239</t>
+  </si>
+  <si>
+    <t>2020-08-22 14:40:26.233</t>
+  </si>
+  <si>
+    <t>0313006300000021557750220204</t>
+  </si>
+  <si>
+    <t>48-0049-2018</t>
+  </si>
+  <si>
+    <t>19835</t>
+  </si>
+  <si>
+    <t>AYALA DE CAMPOS YENY DEL CARMEN</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX0886</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>003087880</t>
+  </si>
+  <si>
+    <t>913604908779</t>
+  </si>
+  <si>
+    <t>2019-05-16 22:52:19.040</t>
+  </si>
+  <si>
+    <t>0313011000480049201820120194</t>
+  </si>
+  <si>
+    <t>12-1277-2016</t>
+  </si>
+  <si>
+    <t>59273</t>
+  </si>
+  <si>
+    <t>PORTILLO ZEPEDA CRISTIAN ADALBERTO</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX1697</t>
+  </si>
+  <si>
+    <t>004174112</t>
+  </si>
+  <si>
+    <t>028900728500</t>
+  </si>
+  <si>
+    <t>2020-10-15 18:26:07.707</t>
+  </si>
+  <si>
+    <t>0313006300000018890350220208</t>
+  </si>
+  <si>
+    <t>60844</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4410</t>
+  </si>
+  <si>
+    <t>004180576</t>
+  </si>
+  <si>
+    <t>029502871871</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:57:08.727</t>
+  </si>
+  <si>
+    <t>0313006300000021557760220202</t>
+  </si>
+  <si>
+    <t>60845</t>
+  </si>
+  <si>
+    <t>004180578</t>
+  </si>
+  <si>
+    <t>029503873116</t>
+  </si>
+  <si>
+    <t>2020-10-21 21:00:47.130</t>
+  </si>
+  <si>
+    <t>0313006300000021557770220200</t>
+  </si>
+  <si>
+    <t>32-3482-2020</t>
+  </si>
+  <si>
+    <t>53524</t>
+  </si>
+  <si>
+    <t>PINEDA MELENDEZ RICARDO GEOVANNY</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX2784</t>
+  </si>
+  <si>
+    <t>004091203</t>
+  </si>
+  <si>
+    <t>023003625257</t>
+  </si>
+  <si>
+    <t>2020-08-17 21:28:18.540</t>
+  </si>
+  <si>
+    <t>0313006300000022630930220201</t>
+  </si>
+  <si>
+    <t>25-1303-2020</t>
+  </si>
+  <si>
+    <t>54061</t>
+  </si>
+  <si>
+    <t>PEREZ ORTIZ RONALD ALEXIS</t>
+  </si>
+  <si>
+    <t>004096091</t>
+  </si>
+  <si>
+    <t>023520254296</t>
+  </si>
+  <si>
+    <t>2020-08-22 14:47:26.967</t>
+  </si>
+  <si>
+    <t>0313006300000022410960220201</t>
+  </si>
+  <si>
+    <t>62455</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX8599</t>
+  </si>
+  <si>
+    <t>004204270</t>
+  </si>
+  <si>
+    <t>031119841362</t>
+  </si>
+  <si>
+    <t>2020-11-06 13:44:13.597</t>
+  </si>
+  <si>
+    <t>0313006300000020803170220205</t>
+  </si>
+  <si>
+    <t>22-5277-2018</t>
+  </si>
+  <si>
+    <t>58197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVAS ALFARO MARCOS </t>
+  </si>
+  <si>
+    <t>XXXXXXXXX2229</t>
+  </si>
+  <si>
+    <t>004148317</t>
+  </si>
+  <si>
+    <t>027804435313</t>
+  </si>
+  <si>
+    <t>2020-10-04 22:07:54.583</t>
+  </si>
+  <si>
+    <t>0313006300000021264470220206</t>
+  </si>
+  <si>
+    <t>51-2951-2018</t>
+  </si>
+  <si>
+    <t>57969</t>
+  </si>
+  <si>
+    <t>MORALES DE PAZ CARLOS SAMUEL</t>
+  </si>
+  <si>
+    <t>004143528</t>
+  </si>
+  <si>
+    <t>027514672786</t>
+  </si>
+  <si>
+    <t>2020-10-01 08:44:58.307</t>
+  </si>
+  <si>
+    <t>0313006300000020883850220204</t>
+  </si>
+  <si>
+    <t>25-3138-2019</t>
+  </si>
+  <si>
+    <t>60836</t>
+  </si>
+  <si>
+    <t>CHAVEZ RAMIREZ KEVIN ADONAY</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX9754</t>
+  </si>
+  <si>
+    <t>004180554</t>
+  </si>
+  <si>
+    <t>029502847509</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:01:27.780</t>
+  </si>
+  <si>
+    <t>0313006300000021787460220208</t>
+  </si>
+  <si>
+    <t>54503</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX0917</t>
+  </si>
+  <si>
+    <t>004102522</t>
+  </si>
+  <si>
+    <t>024203581394</t>
+  </si>
+  <si>
+    <t>2020-08-29 21:41:28.073</t>
+  </si>
+  <si>
+    <t>0313006300000021787440220203</t>
+  </si>
+  <si>
+    <t>68-3477-2020</t>
+  </si>
+  <si>
+    <t>57971</t>
+  </si>
+  <si>
+    <t>CHACON GUILLEN GERSON ALEXIS</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>004143555</t>
+  </si>
+  <si>
+    <t>027515688690</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:08:09.100</t>
+  </si>
+  <si>
+    <t>0313007500000022630460220205</t>
+  </si>
+  <si>
+    <t>57967</t>
+  </si>
+  <si>
+    <t>004143516</t>
+  </si>
+  <si>
+    <t>027514666531</t>
+  </si>
+  <si>
+    <t>2020-10-01 08:35:44.690</t>
+  </si>
+  <si>
+    <t>0313007500000022630450220207</t>
+  </si>
+  <si>
+    <t>54093</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4569</t>
+  </si>
+  <si>
+    <t>004096184</t>
+  </si>
+  <si>
+    <t>023500375880</t>
+  </si>
+  <si>
+    <t>2020-08-22 18:05:48.690</t>
+  </si>
+  <si>
+    <t>0313006300000022410970220209</t>
+  </si>
+  <si>
+    <t>11-2948-2018</t>
+  </si>
+  <si>
+    <t>60833</t>
+  </si>
+  <si>
+    <t>RENDEROS ALEMAN EVER MAUDIEL</t>
+  </si>
+  <si>
+    <t>004180551</t>
+  </si>
+  <si>
+    <t>029501843632</t>
+  </si>
+  <si>
+    <t>2020-10-21 19:52:21.230</t>
+  </si>
+  <si>
+    <t>0313006300000020883560220205</t>
+  </si>
+  <si>
+    <t>58196</t>
+  </si>
+  <si>
+    <t>004148316</t>
+  </si>
+  <si>
+    <t>027804434720</t>
+  </si>
+  <si>
+    <t>2020-10-04 22:06:00.993</t>
+  </si>
+  <si>
+    <t>0313006300000021264460220208</t>
+  </si>
+  <si>
+    <t>54094</t>
+  </si>
+  <si>
+    <t>004096188</t>
+  </si>
+  <si>
+    <t>023500379775</t>
+  </si>
+  <si>
+    <t>2020-08-22 18:12:40.687</t>
+  </si>
+  <si>
+    <t>60846</t>
+  </si>
+  <si>
+    <t>004180579</t>
+  </si>
+  <si>
+    <t>029503876218</t>
+  </si>
+  <si>
+    <t>2020-10-21 21:09:13.727</t>
+  </si>
+  <si>
+    <t>0313006300000018954070220201</t>
+  </si>
+  <si>
+    <t>60842</t>
+  </si>
+  <si>
+    <t>004180563</t>
+  </si>
+  <si>
+    <t>029502857805</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:26:03.113</t>
+  </si>
+  <si>
+    <t>0313006300000017788670220208</t>
+  </si>
+  <si>
+    <t>57972</t>
+  </si>
+  <si>
+    <t>004143558</t>
+  </si>
+  <si>
+    <t>027515689987</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:09:59.217</t>
+  </si>
+  <si>
+    <t>0313006300000021787450220200</t>
+  </si>
+  <si>
+    <t>54507</t>
+  </si>
+  <si>
+    <t>004102547</t>
+  </si>
+  <si>
+    <t>024205614003</t>
+  </si>
+  <si>
+    <t>2020-08-29 23:33:08.797</t>
+  </si>
+  <si>
+    <t>0313006300000020883550220207</t>
+  </si>
+  <si>
+    <t>57970</t>
+  </si>
+  <si>
+    <t>004143550</t>
+  </si>
+  <si>
+    <t>027515684871</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:03:14.760</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -235,7 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,22 +842,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -303,6 +890,12 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -360,10 +953,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:F5"/>
-  <sortState ref="A2:F10">
-    <sortCondition ref="F1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A1:F24"/>
+  <sortState ref="A2:F24">
+    <sortCondition ref="F1:F24"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Tarjeta **" dataDxfId="20"/>
@@ -378,22 +971,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:M4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:M26" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M26"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="CARNET" dataDxfId="14"/>
-    <tableColumn id="13" name="codigo" dataDxfId="13"/>
-    <tableColumn id="2" name="Alumno" dataDxfId="12"/>
-    <tableColumn id="3" name="Comercio" dataDxfId="11"/>
-    <tableColumn id="4" name="rpe_terminal" dataDxfId="10"/>
-    <tableColumn id="14" name="Autorizacion" dataDxfId="9"/>
-    <tableColumn id="5" name="Mascara tarjeta" dataDxfId="8"/>
-    <tableColumn id="6" name="Monto" dataDxfId="7"/>
-    <tableColumn id="8" name="Boleta" dataDxfId="6"/>
-    <tableColumn id="9" name="Referncia" dataDxfId="5"/>
-    <tableColumn id="10" name="Descripcion" dataDxfId="4"/>
-    <tableColumn id="11" name="Fecha transaccion" dataDxfId="3"/>
-    <tableColumn id="12" name="NPE" dataDxfId="2"/>
+    <tableColumn id="1" name="CARNET" dataDxfId="12"/>
+    <tableColumn id="13" name="codigo" dataDxfId="11"/>
+    <tableColumn id="2" name="Alumno" dataDxfId="10"/>
+    <tableColumn id="3" name="Comercio" dataDxfId="9"/>
+    <tableColumn id="4" name="rpe_terminal" dataDxfId="8"/>
+    <tableColumn id="14" name="Autorizacion" dataDxfId="7"/>
+    <tableColumn id="5" name="Mascara tarjeta" dataDxfId="6"/>
+    <tableColumn id="6" name="Monto" dataDxfId="5"/>
+    <tableColumn id="8" name="Boleta" dataDxfId="4"/>
+    <tableColumn id="9" name="Referncia" dataDxfId="3"/>
+    <tableColumn id="10" name="Descripcion" dataDxfId="2"/>
+    <tableColumn id="11" name="Fecha transaccion" dataDxfId="1"/>
+    <tableColumn id="12" name="NPE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,9 +1255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -674,17 +1269,16 @@
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
-    <col min="18" max="23" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="21" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,83 +1302,463 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -801,17 +1775,19 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="25.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,15 +1828,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -869,39 +1845,39 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -910,39 +1886,39 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
@@ -950,29 +1926,935 @@
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
+      <c r="F4" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Especificas/DOCUMENTACION DE RESPALDO.xlsx
+++ b/Especificas/DOCUMENTACION DE RESPALDO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datos-originales" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Tarjeta **</t>
   </si>
@@ -96,70 +96,40 @@
     <t>75</t>
   </si>
   <si>
-    <t>489983xxxxxx8647</t>
-  </si>
-  <si>
-    <t>74406751015101522980202</t>
-  </si>
-  <si>
-    <t>15/01/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$                           100.00 </t>
-  </si>
-  <si>
-    <t>980202</t>
-  </si>
-  <si>
-    <t>Procesado doblemente</t>
-  </si>
-  <si>
-    <t>53-2832-2020</t>
-  </si>
-  <si>
-    <t>75651</t>
-  </si>
-  <si>
-    <t>GOMEZ MONTANO WILLIAN</t>
-  </si>
-  <si>
-    <t>982158</t>
-  </si>
-  <si>
-    <t>XXXXXXXXX8647</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>004365253</t>
-  </si>
-  <si>
-    <t>2021-01-15 16:54:23.723</t>
-  </si>
-  <si>
-    <t>0313010000000022565010120217</t>
-  </si>
-  <si>
-    <t>75652</t>
-  </si>
-  <si>
-    <t>987520</t>
-  </si>
-  <si>
-    <t>004365258</t>
-  </si>
-  <si>
-    <t>2021-01-15 16:58:29.727</t>
-  </si>
-  <si>
-    <t>0313007500000022565020120216</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxx101522982158</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxx101522987520</t>
+    <t xml:space="preserve">$                              75.00 </t>
+  </si>
+  <si>
+    <t>457495xxxxxx8806</t>
+  </si>
+  <si>
+    <t>74406751154115420957840</t>
+  </si>
+  <si>
+    <t>3/06/2021</t>
+  </si>
+  <si>
+    <t>004590</t>
+  </si>
+  <si>
+    <t>54-2301-2016</t>
+  </si>
+  <si>
+    <t>94442</t>
+  </si>
+  <si>
+    <t>LUNA HERNANDEZ SARAI DE JESUS</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX8806</t>
+  </si>
+  <si>
+    <t>004590717</t>
+  </si>
+  <si>
+    <t>2021-06-03 14:59:31.303</t>
+  </si>
+  <si>
+    <t>0313007500000019090170120218</t>
   </si>
 </sst>
 </file>
@@ -328,7 +298,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G2" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:G2"/>
-  <sortState ref="A2:G10">
+  <sortState ref="A2:G7">
     <sortCondition ref="B1:B10"/>
   </sortState>
   <tableColumns count="7">
@@ -345,8 +315,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:M3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:M2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M2"/>
+  <sortState ref="A2:M10">
+    <sortCondition ref="J1:J10"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" name="CARNET" dataDxfId="12"/>
     <tableColumn id="13" name="codigo" dataDxfId="11"/>
@@ -631,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,7 +614,7 @@
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="1"/>
@@ -678,25 +651,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -713,18 +683,25 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="25.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -770,13 +747,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -784,70 +761,29 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Especificas/DOCUMENTACION DE RESPALDO.xlsx
+++ b/Especificas/DOCUMENTACION DE RESPALDO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="datos-originales" sheetId="2" r:id="rId1"/>
@@ -93,43 +93,43 @@
     <t>Fecha transacción</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$                              75.00 </t>
-  </si>
-  <si>
-    <t>457495xxxxxx8806</t>
-  </si>
-  <si>
-    <t>74406751154115420957840</t>
-  </si>
-  <si>
-    <t>3/06/2021</t>
-  </si>
-  <si>
-    <t>004590</t>
-  </si>
-  <si>
-    <t>54-2301-2016</t>
-  </si>
-  <si>
-    <t>94442</t>
-  </si>
-  <si>
-    <t>LUNA HERNANDEZ SARAI DE JESUS</t>
-  </si>
-  <si>
-    <t>XXXXXXXXX8806</t>
-  </si>
-  <si>
-    <t>004590717</t>
-  </si>
-  <si>
-    <t>2021-06-03 14:59:31.303</t>
-  </si>
-  <si>
-    <t>0313007500000019090170120218</t>
+    <t>403329xxxxxx9995</t>
+  </si>
+  <si>
+    <t>74406751136113602939358</t>
+  </si>
+  <si>
+    <t>16/05/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              63.00 </t>
+  </si>
+  <si>
+    <t>561434</t>
+  </si>
+  <si>
+    <t>18-1943-2021</t>
+  </si>
+  <si>
+    <t>92070</t>
+  </si>
+  <si>
+    <t>CRUZ AVELAR JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX9995</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>004553366</t>
+  </si>
+  <si>
+    <t>2021-05-16 20:05:29.797</t>
+  </si>
+  <si>
+    <t>0313006300000023036360120219</t>
   </si>
 </sst>
 </file>
@@ -604,17 +604,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="1"/>
@@ -651,22 +651,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -685,23 +685,23 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -747,13 +747,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>

--- a/Especificas/DOCUMENTACION DE RESPALDO.xlsx
+++ b/Especificas/DOCUMENTACION DE RESPALDO.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
-  <si>
-    <t>Tarjeta **</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="440">
   <si>
     <t>Referencia</t>
   </si>
@@ -45,9 +42,6 @@
     <t>UNIVERSIDAD TECNOLOGICA</t>
   </si>
   <si>
-    <t xml:space="preserve">  Monto transacción  </t>
-  </si>
-  <si>
     <t>CARNET</t>
   </si>
   <si>
@@ -93,43 +87,1264 @@
     <t>Fecha transacción</t>
   </si>
   <si>
-    <t>403329xxxxxx9995</t>
-  </si>
-  <si>
-    <t>74406751136113602939358</t>
-  </si>
-  <si>
-    <t>16/05/2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">$                              63.00 </t>
   </si>
   <si>
-    <t>561434</t>
-  </si>
-  <si>
-    <t>18-1943-2021</t>
-  </si>
-  <si>
-    <t>92070</t>
-  </si>
-  <si>
-    <t>CRUZ AVELAR JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>XXXXXXXXX9995</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
-    <t>004553366</t>
-  </si>
-  <si>
-    <t>2021-05-16 20:05:29.797</t>
-  </si>
-  <si>
-    <t>0313006300000023036360120219</t>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Monto transacción  </t>
+  </si>
+  <si>
+    <t>548258xxxxxx4348</t>
+  </si>
+  <si>
+    <t>75383960264026404826299</t>
+  </si>
+  <si>
+    <t>20/09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                             63.00 </t>
+  </si>
+  <si>
+    <t>481676</t>
+  </si>
+  <si>
+    <t>75383960264026404826307</t>
+  </si>
+  <si>
+    <t>482032</t>
+  </si>
+  <si>
+    <t>545375xxxxxx9522</t>
+  </si>
+  <si>
+    <t>75383960200020014797419</t>
+  </si>
+  <si>
+    <t>18/07/2020</t>
+  </si>
+  <si>
+    <t>020363</t>
+  </si>
+  <si>
+    <t>545375xxxxxx1899</t>
+  </si>
+  <si>
+    <t>75383960200020023135361</t>
+  </si>
+  <si>
+    <t>051854</t>
+  </si>
+  <si>
+    <t>545375xxxxxx5502</t>
+  </si>
+  <si>
+    <t>75383960201020104771059</t>
+  </si>
+  <si>
+    <t>19/07/2020</t>
+  </si>
+  <si>
+    <t>042039</t>
+  </si>
+  <si>
+    <t>545375xxxxxx0917</t>
+  </si>
+  <si>
+    <t>75383960232023200648588</t>
+  </si>
+  <si>
+    <t>19/08/2020</t>
+  </si>
+  <si>
+    <t>036391</t>
+  </si>
+  <si>
+    <t>545375xxxxxx4482</t>
+  </si>
+  <si>
+    <t>75383960219021917512516</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>065787</t>
+  </si>
+  <si>
+    <t>545375xxxxxx4447</t>
+  </si>
+  <si>
+    <t>75383960214021421506512</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>053573</t>
+  </si>
+  <si>
+    <t>75383960214021421520752</t>
+  </si>
+  <si>
+    <t>008791</t>
+  </si>
+  <si>
+    <t>545375xxxxxx6953</t>
+  </si>
+  <si>
+    <t>75383960224022402803702</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>040886</t>
+  </si>
+  <si>
+    <t>75383960224022402820581</t>
+  </si>
+  <si>
+    <t>046727</t>
+  </si>
+  <si>
+    <t>545375xxxxxx9652</t>
+  </si>
+  <si>
+    <t>75383960214021420491260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                             63.00 </t>
+  </si>
+  <si>
+    <t>081903</t>
+  </si>
+  <si>
+    <t>75383960214021421526999</t>
+  </si>
+  <si>
+    <t>006169</t>
+  </si>
+  <si>
+    <t>545375xxxxxx9547</t>
+  </si>
+  <si>
+    <t>75383960224022401782808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                             63.00 </t>
+  </si>
+  <si>
+    <t>030943</t>
+  </si>
+  <si>
+    <t>75383960224022402812281</t>
+  </si>
+  <si>
+    <t>096821</t>
+  </si>
+  <si>
+    <t>525678xxxxxx7793</t>
+  </si>
+  <si>
+    <t>75383960240024021003920</t>
+  </si>
+  <si>
+    <t>27/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                             63.28 </t>
+  </si>
+  <si>
+    <t>027408</t>
+  </si>
+  <si>
+    <t>545375xxxxxx1840</t>
+  </si>
+  <si>
+    <t>75383960251025123169226</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>044258</t>
+  </si>
+  <si>
+    <t>75383960251025123173111</t>
+  </si>
+  <si>
+    <t>034584</t>
+  </si>
+  <si>
+    <t>544204xxxxxx3221</t>
+  </si>
+  <si>
+    <t>75383960275027514666531</t>
+  </si>
+  <si>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                             75.00 </t>
+  </si>
+  <si>
+    <t>061896</t>
+  </si>
+  <si>
+    <t>75383960275027514672786</t>
+  </si>
+  <si>
+    <t>036621</t>
+  </si>
+  <si>
+    <t>75383960275027515684871</t>
+  </si>
+  <si>
+    <t>093580</t>
+  </si>
+  <si>
+    <t>75383960275027515688690</t>
+  </si>
+  <si>
+    <t>041825</t>
+  </si>
+  <si>
+    <t>75383960275027515689987</t>
+  </si>
+  <si>
+    <t>086300</t>
+  </si>
+  <si>
+    <t>75383960275027515699531</t>
+  </si>
+  <si>
+    <t>002712</t>
+  </si>
+  <si>
+    <t>544204xxxxxx2229</t>
+  </si>
+  <si>
+    <t>75383960278027804434720</t>
+  </si>
+  <si>
+    <t>04/10/2020</t>
+  </si>
+  <si>
+    <t>067468</t>
+  </si>
+  <si>
+    <t>75383960278027804435313</t>
+  </si>
+  <si>
+    <t>025317</t>
+  </si>
+  <si>
+    <t>544204xxxxxx4410</t>
+  </si>
+  <si>
+    <t>75383960295029502871871</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>012376</t>
+  </si>
+  <si>
+    <t>75383960295029503873116</t>
+  </si>
+  <si>
+    <t>013881</t>
+  </si>
+  <si>
+    <t>75383960295029503876218</t>
+  </si>
+  <si>
+    <t>073819</t>
+  </si>
+  <si>
+    <t>544204xxxxxx8526</t>
+  </si>
+  <si>
+    <t>75383960295029502856773</t>
+  </si>
+  <si>
+    <t>003500</t>
+  </si>
+  <si>
+    <t>75383960295029502857805</t>
+  </si>
+  <si>
+    <t>080690</t>
+  </si>
+  <si>
+    <t>75383960242024203581394</t>
+  </si>
+  <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
+    <t>038207</t>
+  </si>
+  <si>
+    <t>75383960242024205614003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                             63.00 </t>
+  </si>
+  <si>
+    <t>092391</t>
+  </si>
+  <si>
+    <t>552263xxxxxx8599</t>
+  </si>
+  <si>
+    <t>75383960311031119841362</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>023933</t>
+  </si>
+  <si>
+    <t>545375xxxxxx1683</t>
+  </si>
+  <si>
+    <t>75383960235023520249239</t>
+  </si>
+  <si>
+    <t>22/08/2020</t>
+  </si>
+  <si>
+    <t>007633</t>
+  </si>
+  <si>
+    <t>75383960235023520254296</t>
+  </si>
+  <si>
+    <t>017894</t>
+  </si>
+  <si>
+    <t>544204xxxxxx9754</t>
+  </si>
+  <si>
+    <t>75383960295029501843632</t>
+  </si>
+  <si>
+    <t>066111</t>
+  </si>
+  <si>
+    <t>75383960295029502847509</t>
+  </si>
+  <si>
+    <t>038013</t>
+  </si>
+  <si>
+    <t>545375xxxxxx9436</t>
+  </si>
+  <si>
+    <t>75383960312031202817419</t>
+  </si>
+  <si>
+    <t>07/11/2020</t>
+  </si>
+  <si>
+    <t>026783</t>
+  </si>
+  <si>
+    <t>411841xxxxxx8445</t>
+  </si>
+  <si>
+    <t>74406750208020816376381</t>
+  </si>
+  <si>
+    <t>26/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              80.00 </t>
+  </si>
+  <si>
+    <t>486965</t>
+  </si>
+  <si>
+    <t>74406750208020819434856</t>
+  </si>
+  <si>
+    <t>498725</t>
+  </si>
+  <si>
+    <t>457495xxxxxx1697</t>
+  </si>
+  <si>
+    <t>74406750289028900728500</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>009532</t>
+  </si>
+  <si>
+    <t>477260xxxxxx4569</t>
+  </si>
+  <si>
+    <t>74406750235023500375880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              68.88 </t>
+  </si>
+  <si>
+    <t>064365</t>
+  </si>
+  <si>
+    <t>74406750235023500379775</t>
+  </si>
+  <si>
+    <t>071965</t>
+  </si>
+  <si>
+    <t>494016xxxxxx8405</t>
+  </si>
+  <si>
+    <t>74406750315031505703330</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>020231</t>
+  </si>
+  <si>
+    <t>74406750315031518308085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              63.00 </t>
+  </si>
+  <si>
+    <t>061515</t>
+  </si>
+  <si>
+    <t>455001xxxxxx4398</t>
+  </si>
+  <si>
+    <t>74406750324032404479666</t>
+  </si>
+  <si>
+    <t>19/11/2020</t>
+  </si>
+  <si>
+    <t>254849</t>
+  </si>
+  <si>
+    <t>400729xxxxxx7076</t>
+  </si>
+  <si>
+    <t>74406750350035004941578</t>
+  </si>
+  <si>
+    <t>15/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              63.00 </t>
+  </si>
+  <si>
+    <t>921530</t>
+  </si>
+  <si>
+    <t>431992xxxxxx3689</t>
+  </si>
+  <si>
+    <t>74406750331033118285192</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$                              75.00 </t>
+  </si>
+  <si>
+    <t>738543</t>
+  </si>
+  <si>
+    <t>494016xxxxxx4323</t>
+  </si>
+  <si>
+    <t>74406750335033523921122</t>
+  </si>
+  <si>
+    <t>30/11/2020</t>
+  </si>
+  <si>
+    <t>040459</t>
+  </si>
+  <si>
+    <t>25-1074-2016</t>
+  </si>
+  <si>
+    <t>57976</t>
+  </si>
+  <si>
+    <t>MONTANO RIVERA HAROLD ADRIAN</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX3221</t>
+  </si>
+  <si>
+    <t>004143576</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:23:46.253</t>
+  </si>
+  <si>
+    <t>0313006300000018954060220203</t>
+  </si>
+  <si>
+    <t>18-6218-2014</t>
+  </si>
+  <si>
+    <t>60841</t>
+  </si>
+  <si>
+    <t>LINARES SANDOVAL YAQUELIN BEATRIZ</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX8526</t>
+  </si>
+  <si>
+    <t>004180562</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:23:45.830</t>
+  </si>
+  <si>
+    <t>0313006300000017788660220200</t>
+  </si>
+  <si>
+    <t>22-5277-2018</t>
+  </si>
+  <si>
+    <t>49828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVAS ALFARO MARCOS </t>
+  </si>
+  <si>
+    <t>XXXXXXXXX9652</t>
+  </si>
+  <si>
+    <t>004076335</t>
+  </si>
+  <si>
+    <t>2020-08-01 15:50:22.173</t>
+  </si>
+  <si>
+    <t>0313006300000021264450220200</t>
+  </si>
+  <si>
+    <t>22-1021-2019</t>
+  </si>
+  <si>
+    <t>54058</t>
+  </si>
+  <si>
+    <t>CANIZALEZ ALFARO PATRICIA CAROLINA</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX1683</t>
+  </si>
+  <si>
+    <t>004096085</t>
+  </si>
+  <si>
+    <t>2020-08-22 14:40:26.233</t>
+  </si>
+  <si>
+    <t>0313006300000021557750220204</t>
+  </si>
+  <si>
+    <t>25-1303-2020</t>
+  </si>
+  <si>
+    <t>49827</t>
+  </si>
+  <si>
+    <t>PEREZ ORTIZ RONALD ALEXIS</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4447</t>
+  </si>
+  <si>
+    <t>004076330</t>
+  </si>
+  <si>
+    <t>2020-08-01 15:40:30.567</t>
+  </si>
+  <si>
+    <t>0313006300000022410940220206</t>
+  </si>
+  <si>
+    <t>12-1277-2016</t>
+  </si>
+  <si>
+    <t>59273</t>
+  </si>
+  <si>
+    <t>PORTILLO ZEPEDA CRISTIAN ADALBERTO</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX1697</t>
+  </si>
+  <si>
+    <t>004174112</t>
+  </si>
+  <si>
+    <t>2020-10-15 18:26:07.707</t>
+  </si>
+  <si>
+    <t>0313006300000018890350220208</t>
+  </si>
+  <si>
+    <t>60844</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4410</t>
+  </si>
+  <si>
+    <t>004180576</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:57:08.727</t>
+  </si>
+  <si>
+    <t>0313006300000021557760220202</t>
+  </si>
+  <si>
+    <t>60845</t>
+  </si>
+  <si>
+    <t>004180578</t>
+  </si>
+  <si>
+    <t>2020-10-21 21:00:47.130</t>
+  </si>
+  <si>
+    <t>0313006300000021557770220200</t>
+  </si>
+  <si>
+    <t>54061</t>
+  </si>
+  <si>
+    <t>004096091</t>
+  </si>
+  <si>
+    <t>2020-08-22 14:47:26.967</t>
+  </si>
+  <si>
+    <t>0313006300000022410960220201</t>
+  </si>
+  <si>
+    <t>34-2342-2015</t>
+  </si>
+  <si>
+    <t>62841</t>
+  </si>
+  <si>
+    <t>JIRON PEREZ RUTH YANETH</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX8405</t>
+  </si>
+  <si>
+    <t>004210486</t>
+  </si>
+  <si>
+    <t>2020-11-10 23:22:32.410</t>
+  </si>
+  <si>
+    <t>0313006300000018215560220204</t>
+  </si>
+  <si>
+    <t>11-2948-2018</t>
+  </si>
+  <si>
+    <t>48010</t>
+  </si>
+  <si>
+    <t>RENDEROS ALEMAN EVER MAUDIEL</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX9522</t>
+  </si>
+  <si>
+    <t>004059355</t>
+  </si>
+  <si>
+    <t>2020-07-18 08:44:03.237</t>
+  </si>
+  <si>
+    <t>0313006300000020883530220202</t>
+  </si>
+  <si>
+    <t>12-2183-2018</t>
+  </si>
+  <si>
+    <t>62455</t>
+  </si>
+  <si>
+    <t>MARTINEZ MENDOZA GENESIS YAMILETH</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX8599</t>
+  </si>
+  <si>
+    <t>004204270</t>
+  </si>
+  <si>
+    <t>2020-11-06 13:44:13.597</t>
+  </si>
+  <si>
+    <t>0313006300000020803170220205</t>
+  </si>
+  <si>
+    <t>58197</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX2229</t>
+  </si>
+  <si>
+    <t>004148317</t>
+  </si>
+  <si>
+    <t>2020-10-04 22:07:54.583</t>
+  </si>
+  <si>
+    <t>0313006300000021264470220206</t>
+  </si>
+  <si>
+    <t>34-0359-2020</t>
+  </si>
+  <si>
+    <t>62561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ DELGADO  ALICIA MARCELA  </t>
+  </si>
+  <si>
+    <t>XXXXXXXXX9436</t>
+  </si>
+  <si>
+    <t>004205232</t>
+  </si>
+  <si>
+    <t>2020-11-07 20:57:56.500</t>
+  </si>
+  <si>
+    <t>0313006300000022298060220209</t>
+  </si>
+  <si>
+    <t>51-2951-2018</t>
+  </si>
+  <si>
+    <t>54413</t>
+  </si>
+  <si>
+    <t>MORALES DE PAZ CARLOS SAMUEL</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX7793</t>
+  </si>
+  <si>
+    <t>004100261</t>
+  </si>
+  <si>
+    <t>2020-08-27 15:23:15.197</t>
+  </si>
+  <si>
+    <t>0313006300000020883840220207</t>
+  </si>
+  <si>
+    <t>51617</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX9547</t>
+  </si>
+  <si>
+    <t>004083708</t>
+  </si>
+  <si>
+    <t>2020-08-11 19:24:37.440</t>
+  </si>
+  <si>
+    <t>0313006300000018954030220200</t>
+  </si>
+  <si>
+    <t>54970</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX1840</t>
+  </si>
+  <si>
+    <t>004113632</t>
+  </si>
+  <si>
+    <t>2020-09-07 17:54:49.720</t>
+  </si>
+  <si>
+    <t>0313006300000020803160220207</t>
+  </si>
+  <si>
+    <t>53724</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX0917</t>
+  </si>
+  <si>
+    <t>004093704</t>
+  </si>
+  <si>
+    <t>2020-08-19 18:41:21.927</t>
+  </si>
+  <si>
+    <t>0313006300000022410950220203</t>
+  </si>
+  <si>
+    <t>57969</t>
+  </si>
+  <si>
+    <t>004143528</t>
+  </si>
+  <si>
+    <t>2020-10-01 08:44:58.307</t>
+  </si>
+  <si>
+    <t>0313006300000020883850220204</t>
+  </si>
+  <si>
+    <t>25-3138-2019</t>
+  </si>
+  <si>
+    <t>60836</t>
+  </si>
+  <si>
+    <t>CHAVEZ RAMIREZ KEVIN ADONAY</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX9754</t>
+  </si>
+  <si>
+    <t>004180554</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:01:27.780</t>
+  </si>
+  <si>
+    <t>0313006300000021787460220208</t>
+  </si>
+  <si>
+    <t>54503</t>
+  </si>
+  <si>
+    <t>004102522</t>
+  </si>
+  <si>
+    <t>2020-08-29 21:41:28.073</t>
+  </si>
+  <si>
+    <t>0313006300000021787440220203</t>
+  </si>
+  <si>
+    <t>34-3106-2015</t>
+  </si>
+  <si>
+    <t>65745</t>
+  </si>
+  <si>
+    <t>LOPEZ OCHOA SINDY CAROLINA</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4323</t>
+  </si>
+  <si>
+    <t>004241352</t>
+  </si>
+  <si>
+    <t>2020-11-30 17:59:05.087</t>
+  </si>
+  <si>
+    <t>0313006300000018295670220203</t>
+  </si>
+  <si>
+    <t>51623</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX6953</t>
+  </si>
+  <si>
+    <t>004083723</t>
+  </si>
+  <si>
+    <t>2020-08-11 20:11:36.920</t>
+  </si>
+  <si>
+    <t>0313006300000020803130220204</t>
+  </si>
+  <si>
+    <t>61-3477-2020</t>
+  </si>
+  <si>
+    <t>57971</t>
+  </si>
+  <si>
+    <t>CHACON GUILLEN GERSON ALEXIS</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>004143555</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:08:09.100</t>
+  </si>
+  <si>
+    <t>0313007500000022630460220205</t>
+  </si>
+  <si>
+    <t>49247</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX5502</t>
+  </si>
+  <si>
+    <t>004060412</t>
+  </si>
+  <si>
+    <t>2020-07-19 22:18:08.480</t>
+  </si>
+  <si>
+    <t>0313006300000021787430220205</t>
+  </si>
+  <si>
+    <t>54969</t>
+  </si>
+  <si>
+    <t>004113630</t>
+  </si>
+  <si>
+    <t>2020-09-07 17:48:15.243</t>
+  </si>
+  <si>
+    <t>0313006300000020803150220209</t>
+  </si>
+  <si>
+    <t>51635</t>
+  </si>
+  <si>
+    <t>004083748</t>
+  </si>
+  <si>
+    <t>2020-08-11 20:51:56.597</t>
+  </si>
+  <si>
+    <t>0313006300000020803140220202</t>
+  </si>
+  <si>
+    <t>48104</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX1899</t>
+  </si>
+  <si>
+    <t>004059830</t>
+  </si>
+  <si>
+    <t>2020-07-18 17:25:06.767</t>
+  </si>
+  <si>
+    <t>0313006300000020883830220209</t>
+  </si>
+  <si>
+    <t>49823</t>
+  </si>
+  <si>
+    <t>004076318</t>
+  </si>
+  <si>
+    <t>2020-08-01 15:18:46.163</t>
+  </si>
+  <si>
+    <t>0313006300000022410930220208</t>
+  </si>
+  <si>
+    <t>62755</t>
+  </si>
+  <si>
+    <t>004209020</t>
+  </si>
+  <si>
+    <t>2020-11-10 12:15:31.453</t>
+  </si>
+  <si>
+    <t>0313006300000018295660220205</t>
+  </si>
+  <si>
+    <t>57967</t>
+  </si>
+  <si>
+    <t>004143516</t>
+  </si>
+  <si>
+    <t>2020-10-01 08:35:44.690</t>
+  </si>
+  <si>
+    <t>0313007500000022630450220207</t>
+  </si>
+  <si>
+    <t>54093</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4569</t>
+  </si>
+  <si>
+    <t>004096184</t>
+  </si>
+  <si>
+    <t>2020-08-22 18:05:48.690</t>
+  </si>
+  <si>
+    <t>0313006300000022410970220209</t>
+  </si>
+  <si>
+    <t>50049</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4482</t>
+  </si>
+  <si>
+    <t>004078529</t>
+  </si>
+  <si>
+    <t>2020-08-06 11:52:20.123</t>
+  </si>
+  <si>
+    <t>0313006300000020883540220200</t>
+  </si>
+  <si>
+    <t>60833</t>
+  </si>
+  <si>
+    <t>004180551</t>
+  </si>
+  <si>
+    <t>2020-10-21 19:52:21.230</t>
+  </si>
+  <si>
+    <t>0313006300000020883560220205</t>
+  </si>
+  <si>
+    <t>58196</t>
+  </si>
+  <si>
+    <t>004148316</t>
+  </si>
+  <si>
+    <t>2020-10-04 22:06:00.993</t>
+  </si>
+  <si>
+    <t>0313006300000021264460220208</t>
+  </si>
+  <si>
+    <t>54094</t>
+  </si>
+  <si>
+    <t>004096188</t>
+  </si>
+  <si>
+    <t>2020-08-22 18:12:40.687</t>
+  </si>
+  <si>
+    <t>60846</t>
+  </si>
+  <si>
+    <t>004180579</t>
+  </si>
+  <si>
+    <t>2020-10-21 21:09:13.727</t>
+  </si>
+  <si>
+    <t>0313006300000018954070220201</t>
+  </si>
+  <si>
+    <t>60842</t>
+  </si>
+  <si>
+    <t>004180563</t>
+  </si>
+  <si>
+    <t>2020-10-21 20:26:03.113</t>
+  </si>
+  <si>
+    <t>0313006300000017788670220208</t>
+  </si>
+  <si>
+    <t>49820</t>
+  </si>
+  <si>
+    <t>004076307</t>
+  </si>
+  <si>
+    <t>2020-08-01 14:56:07.120</t>
+  </si>
+  <si>
+    <t>0313006300000021264440220203</t>
+  </si>
+  <si>
+    <t>57972</t>
+  </si>
+  <si>
+    <t>004143558</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:09:59.217</t>
+  </si>
+  <si>
+    <t>0313006300000021787450220200</t>
+  </si>
+  <si>
+    <t>54507</t>
+  </si>
+  <si>
+    <t>004102547</t>
+  </si>
+  <si>
+    <t>2020-08-29 23:33:08.797</t>
+  </si>
+  <si>
+    <t>0313006300000020883550220207</t>
+  </si>
+  <si>
+    <t>57970</t>
+  </si>
+  <si>
+    <t>004143550</t>
+  </si>
+  <si>
+    <t>2020-10-01 09:03:14.760</t>
+  </si>
+  <si>
+    <t>51632</t>
+  </si>
+  <si>
+    <t>004083739</t>
+  </si>
+  <si>
+    <t>2020-08-11 20:33:23.393</t>
+  </si>
+  <si>
+    <t>0313006300000018954040220208</t>
+  </si>
+  <si>
+    <t>34-2062-2016</t>
+  </si>
+  <si>
+    <t>65042</t>
+  </si>
+  <si>
+    <t>HERNANDEZ HERNANDEZ KAREN STEFANY</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4398</t>
+  </si>
+  <si>
+    <t>004225395</t>
+  </si>
+  <si>
+    <t>2020-11-19 22:44:00.113</t>
+  </si>
+  <si>
+    <t>0313006300000019064260220208</t>
+  </si>
+  <si>
+    <t>60-2623-2020</t>
+  </si>
+  <si>
+    <t>57465</t>
+  </si>
+  <si>
+    <t>PEREZ SANCHEZ GABRIELA AZUCENA</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX4348</t>
+  </si>
+  <si>
+    <t>004126995</t>
+  </si>
+  <si>
+    <t>2020-09-20 22:49:18.580</t>
+  </si>
+  <si>
+    <t>0313006300000022544140220200</t>
+  </si>
+  <si>
+    <t>57466</t>
+  </si>
+  <si>
+    <t>004126996</t>
+  </si>
+  <si>
+    <t>2020-09-20 22:49:23.157</t>
+  </si>
+  <si>
+    <t>51-4333-2018</t>
+  </si>
+  <si>
+    <t>49541</t>
+  </si>
+  <si>
+    <t>GONZALEZ SANCHEZ KATHYA MICHELLE</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX8445</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>004066716</t>
+  </si>
+  <si>
+    <t>2020-07-26 13:08:51.940</t>
+  </si>
+  <si>
+    <t>0313008000000021028210220209</t>
+  </si>
+  <si>
+    <t>18-2469-2018</t>
+  </si>
+  <si>
+    <t>68542</t>
+  </si>
+  <si>
+    <t>CASTILLO LOPEZ MARTHA JEANNETTE</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX7076</t>
+  </si>
+  <si>
+    <t>004290450</t>
+  </si>
+  <si>
+    <t>2020-12-15 22:15:54.427</t>
+  </si>
+  <si>
+    <t>0313006300000020833470220209</t>
   </si>
 </sst>
 </file>
@@ -153,7 +1368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +1378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,16 +1400,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -246,42 +1504,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -296,44 +1518,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G2" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A1:G2"/>
-  <sortState ref="A2:G7">
-    <sortCondition ref="B1:B10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G51" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G51"/>
+  <sortState ref="A2:G51">
+    <sortCondition ref="B1:B51"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Tarjeta **" dataDxfId="21"/>
-    <tableColumn id="2" name="Referencia" dataDxfId="20"/>
-    <tableColumn id="3" name="Nombre sucursal" dataDxfId="19"/>
-    <tableColumn id="4" name="Fecha real " dataDxfId="18"/>
-    <tableColumn id="5" name="  Monto transacción  " dataDxfId="17"/>
-    <tableColumn id="6" name="Autorización" dataDxfId="16"/>
-    <tableColumn id="7" name="Tipo de Reclamo " dataDxfId="15"/>
+    <tableColumn id="1" name="Tarjeta" dataDxfId="6"/>
+    <tableColumn id="2" name="Referencia" dataDxfId="5"/>
+    <tableColumn id="3" name="Nombre sucursal" dataDxfId="4"/>
+    <tableColumn id="4" name="Fecha real " dataDxfId="3"/>
+    <tableColumn id="5" name="  Monto transacción  " dataDxfId="2"/>
+    <tableColumn id="6" name="Autorización" dataDxfId="1"/>
+    <tableColumn id="7" name="Tipo de Reclamo " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:M2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M2"/>
-  <sortState ref="A2:M10">
-    <sortCondition ref="J1:J10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:M49" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:M49"/>
+  <sortState ref="A2:M49">
+    <sortCondition ref="J1:J49"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="CARNET" dataDxfId="12"/>
-    <tableColumn id="13" name="codigo" dataDxfId="11"/>
-    <tableColumn id="2" name="Alumno" dataDxfId="10"/>
-    <tableColumn id="3" name="Comercio" dataDxfId="9"/>
-    <tableColumn id="4" name="rpe_terminal" dataDxfId="8"/>
-    <tableColumn id="14" name="Autorización" dataDxfId="7"/>
-    <tableColumn id="5" name="Mascara tarjeta" dataDxfId="6"/>
-    <tableColumn id="6" name="Monto" dataDxfId="5"/>
-    <tableColumn id="8" name="Boleta" dataDxfId="4"/>
-    <tableColumn id="9" name="Referencia" dataDxfId="3"/>
-    <tableColumn id="10" name="Descripción" dataDxfId="2"/>
-    <tableColumn id="11" name="Fecha transacción" dataDxfId="1"/>
-    <tableColumn id="12" name="NPE" dataDxfId="0"/>
+    <tableColumn id="1" name="CARNET" dataDxfId="20"/>
+    <tableColumn id="13" name="codigo" dataDxfId="19"/>
+    <tableColumn id="2" name="Alumno" dataDxfId="18"/>
+    <tableColumn id="3" name="Comercio" dataDxfId="17"/>
+    <tableColumn id="4" name="rpe_terminal" dataDxfId="16"/>
+    <tableColumn id="14" name="Autorización" dataDxfId="15"/>
+    <tableColumn id="5" name="Mascara tarjeta" dataDxfId="14"/>
+    <tableColumn id="6" name="Monto" dataDxfId="13"/>
+    <tableColumn id="8" name="Boleta" dataDxfId="12"/>
+    <tableColumn id="9" name="Referencia" dataDxfId="11"/>
+    <tableColumn id="10" name="Descripción" dataDxfId="10"/>
+    <tableColumn id="11" name="Fecha transacción" dataDxfId="9"/>
+    <tableColumn id="12" name="NPE" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,9 +1824,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -628,45 +1850,1025 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>144</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -683,9 +2885,11 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,84 +2910,2011 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>425</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
+      <c r="F33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
